--- a/biology/Botanique/Hellébore/Hellébore.xlsx
+++ b/biology/Botanique/Hellébore/Hellébore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore</t>
+          <t>Hellébore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hellébore ou Ellébore est un terme vernaculaire désignant certaines plantes de la famille  des Renonculacées, principalement du genre Helleborus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore</t>
+          <t>Hellébore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot hellébore provient du grec helleboros. 
-L'hellébore porte le nom d’anticyricón, notamment chez Dioscoride[1]. Dans la Rome antique, l'expression « Mettre le cap sur Anticyre » signifiait donner des signes de folie ; on la retrouve chez Horace[2], Plaute[3] et dans les Adages d’Érasme. Jean de La Fontaine fait allusion à cette croyance dans sa fable Le Lièvre et la Tortue (vers no 7). 
-Certaines espèces étaient employées autrefois en médecine pour leurs vertus purgatives ; dans l'Antiquité, on croyait les hellébores propres à guérir la folie[4] et la mélancolie[5]. 
-Dans Les Caractères de Théophraste (319 av. J.-C.), on retrouve la popularité de l'effet purgatif de l'ellébore dans le portrait du Raseur[6],[7],[8].
-Montaigne (XVIe), sous-entendant que la sorcellerie tiendrait de la mélancolie, conseille dans son essai « Des Boiteux » de soigner à l'ellébore, les femmes du sabbat des sorcières, remède supposé des maladies mentales[9].
+L'hellébore porte le nom d’anticyricón, notamment chez Dioscoride. Dans la Rome antique, l'expression « Mettre le cap sur Anticyre » signifiait donner des signes de folie ; on la retrouve chez Horace, Plaute et dans les Adages d’Érasme. Jean de La Fontaine fait allusion à cette croyance dans sa fable Le Lièvre et la Tortue (vers no 7). 
+Certaines espèces étaient employées autrefois en médecine pour leurs vertus purgatives ; dans l'Antiquité, on croyait les hellébores propres à guérir la folie et la mélancolie. 
+Dans Les Caractères de Théophraste (319 av. J.-C.), on retrouve la popularité de l'effet purgatif de l'ellébore dans le portrait du Raseur.
+Montaigne (XVIe), sous-entendant que la sorcellerie tiendrait de la mélancolie, conseille dans son essai « Des Boiteux » de soigner à l'ellébore, les femmes du sabbat des sorcières, remède supposé des maladies mentales.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore</t>
+          <t>Hellébore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1791, Jacques-Christophe Valmont de Bomare donne les informations suivantes :
-« HELLÉBORE ou ELLÉBORE. Plante dont on distingue plusieurs especes, &amp; qui ont été connues des anciens Grecs et Latins. Nous ne parlerons que deux especes qui sont en usage ; savoir l’hellébore blanc &amp; le noir, &amp; nous avertissons que ces deux plantes sont de genre très-différent[10]. » « On cultive aussi un petit hellébore d’hiver, Helleborus hyemalis, Lin., 783 : sa hauteur est de trois à quatre pouces ; sa tige qui est simple &amp; droite, porte à son sommet une feuille orbiculaire, horizontale, glabre, lisse, profondément découpée : sa fleur est jaune, sessile, &amp; terminale[11]. »
+« HELLÉBORE ou ELLÉBORE. Plante dont on distingue plusieurs especes, &amp; qui ont été connues des anciens Grecs et Latins. Nous ne parlerons que deux especes qui sont en usage ; savoir l’hellébore blanc &amp; le noir, &amp; nous avertissons que ces deux plantes sont de genre très-différent. » « On cultive aussi un petit hellébore d’hiver, Helleborus hyemalis, Lin., 783 : sa hauteur est de trois à quatre pouces ; sa tige qui est simple &amp; droite, porte à son sommet une feuille orbiculaire, horizontale, glabre, lisse, profondément découpée : sa fleur est jaune, sessile, &amp; terminale. »
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore</t>
+          <t>Hellébore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,16 @@
           <t>Liste des espèces appelées « hellébore »</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hellébore noir - Helleborus cyclophyllus[12]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hellébore noir - Helleborus cyclophyllus
 Hellébore noir - Helleborus niger L., appelé aussi rose de Noël
 Hellébore fétide - Helleborus foetidus L.
 Hellébore vert - Helleborus viridis L.
 Hellébore d'hiver - Eranthis hyemalis, ou éranthe d'hiver
-Hellébore blanc ou faux hellébore - Veratrum album[13]
+Hellébore blanc ou faux hellébore - Veratrum album
 			Hellébore noir (Helleborus niger).
 			Hellébore fétide (Helleborus foetidus).
 			Hellébore vert (Helleborus viridis).
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore</t>
+          <t>Hellébore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,10 +639,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Langage des fleurs
-Dans le langage des fleurs, l'hellébore symbolise le bel esprit[14].
-Calendrier républicain
-Dans le calendrier républicain, l'hellébore est le nom attribué au onzième jour du mois de pluviôse[15].</t>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'hellébore symbolise le bel esprit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hellébore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hell%C3%A9bore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, l'hellébore est le nom attribué au onzième jour du mois de pluviôse.</t>
         </is>
       </c>
     </row>
